--- a/infra/ml/Azure_App_Service_Data_Adjusted.xlsx
+++ b/infra/ml/Azure_App_Service_Data_Adjusted.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11110"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10309"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/MHB5544/Documents/PaaS/prophet/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/MHB5544/Documents/github.com/iac-azure-cloudsizing/infra/ml/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A116D21E-6A0E-F848-A5C8-84BAED0FE686}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82948F18-E76B-C548-BBEA-73ED7184617A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16320" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="28800" windowHeight="16320" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Azure Tiers" sheetId="2" r:id="rId1"/>
@@ -485,14 +485,19 @@
   <dimension ref="A1:H17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N10" sqref="N10"/>
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="3" max="3" width="13" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.83203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="4.33203125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.1640625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="13" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="6.6640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="16" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
